--- a/data/output/FV2410_FV2404/UTILMD/55103.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55103.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4252" uniqueCount="362">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4273" uniqueCount="362">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1206,6 +1206,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U187" totalsRowShown="0">
+  <autoFilter ref="A1:U187"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1495,7 +1525,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10631,5 +10664,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55103.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55103.xlsx
@@ -2168,7 +2168,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4486,7 +4486,7 @@
         <v>342</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4706,7 +4706,7 @@
         <v>343</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4926,7 +4926,7 @@
         <v>344</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5146,7 +5146,7 @@
         <v>344</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5366,7 +5366,7 @@
         <v>345</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5586,7 +5586,7 @@
         <v>346</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5748,7 +5748,7 @@
         <v>344</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5964,7 +5964,7 @@
         <v>347</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6168,7 +6168,7 @@
         <v>346</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6370,7 +6370,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6572,7 +6572,7 @@
         <v>350</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6880,7 +6880,7 @@
         <v>351</v>
       </c>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -7254,7 +7254,7 @@
         <v>354</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7714,7 +7714,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -8014,7 +8014,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8212,7 +8212,7 @@
         <v>356</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -8514,7 +8514,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8970,7 +8970,7 @@
         <v>357</v>
       </c>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -9128,7 +9128,7 @@
         <v>358</v>
       </c>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -9434,7 +9434,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9794,7 +9794,7 @@
         <v>360</v>
       </c>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -9942,7 +9942,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10100,7 +10100,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10342,7 +10342,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -11118,7 +11118,7 @@
         <v>362</v>
       </c>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -11646,7 +11646,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N185" s="2"/>
